--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Trimestral.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Trimestral.xlsx
@@ -1806,6 +1806,9 @@
       <c r="D85">
         <v>2.84</v>
       </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
       <c r="F85">
         <v>3.35</v>
       </c>
@@ -1873,6 +1876,9 @@
       </c>
       <c r="D89">
         <v>1.8</v>
+      </c>
+      <c r="F89">
+        <v>1.77</v>
       </c>
     </row>
     <row r="90" spans="1:6">

--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Trimestral.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Serie</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1917,6 +1920,26 @@
         <v>0.31</v>
       </c>
     </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>1.02</v>
+      </c>
+      <c r="C93">
+        <v>1.22</v>
+      </c>
+      <c r="D93">
+        <v>1.33</v>
+      </c>
+      <c r="E93">
+        <v>1.69</v>
+      </c>
+      <c r="F93">
+        <v>2.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Trimestral.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Trimestral.xlsx
@@ -1925,19 +1925,19 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C93">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="D93">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E93">
         <v>1.69</v>
       </c>
       <c r="F93">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
